--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC358973-94FF-4CF4-8FF9-BDAD3EFA582E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91463758-E52D-44C6-BEF8-24F8478D5807}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="855" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="193">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -613,6 +612,15 @@
   </si>
   <si>
     <t>初始想法转换为数组，然后计算，但此类路径问题转换为数组后路径意义消失，一定不可以进行如此转换。大概率情况下，二叉树问题优先考虑使用递归求解。先从叶子节点入手，分析叶子节点情况，分别考虑，null，符合条件，不合条件下的返回问题。此题考查均分coin，针对叶子节点，为空则直接返回0.因每个节点需要一个coin，则返回值为selfval + l + r - 1,因为计算总移动步数，每层都要对左右子树返回节点个数进行相加，表示移动的步数。</t>
+  </si>
+  <si>
+    <t>累计前一次计算的最大值最小值</t>
+  </si>
+  <si>
+    <t>rotate binary search</t>
+  </si>
+  <si>
+    <t>通过有序 旋转性质进行查找</t>
   </si>
 </sst>
 </file>
@@ -1046,17 +1054,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
@@ -3112,6 +3120,54 @@
         <v>43550</v>
       </c>
     </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="7">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="7">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="7">
+        <v>43550</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91463758-E52D-44C6-BEF8-24F8478D5807}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70774CA-B8E3-413A-B5F2-9E1B549F35B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="855" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="615" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="230">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -622,12 +623,123 @@
   <si>
     <t>通过有序 旋转性质进行查找</t>
   </si>
+  <si>
+    <t>使用bisect或者字典，当前元素为item和当前最小值。Python判断里，0也满足not情况，需要注意</t>
+  </si>
+  <si>
+    <t>157. Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>158. Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>重复调用，需考虑初始化情况</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>dp超时，因为只求一个字符的距离，不用遍历所有长度，相等则i++，不等则直接判断三种情况下是否相等</t>
+  </si>
+  <si>
+    <t>1007. Minimum Domino Rotations For Equal Row</t>
+  </si>
+  <si>
+    <t>dfs math</t>
+  </si>
+  <si>
+    <t>dfs超时，观察规律，类似979，总移动次数，一定是最大数移动最小</t>
+  </si>
+  <si>
+    <t>考察while循环</t>
+  </si>
+  <si>
+    <t>186. Reverse Words in a String II</t>
+  </si>
+  <si>
+    <t>闷着头做，没有仔细观察规律，两轮循环，第一轮全部倒叙，第二轮以空格为界，再次每组倒序</t>
+  </si>
+  <si>
+    <t>188. Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>dfs可以暴力尝试</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>dp array</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>因为有循环关系，所以建立两个数组，第一种是rob头家，第二种是ski头家</t>
+  </si>
+  <si>
+    <t>337. House Robber III</t>
+  </si>
+  <si>
+    <t>首先还是考虑递归解法，root为空直接返回0,0，当前最优两种选择，bot cur node or not rob，返回此组合数组。需要注意，rob当前node也需要取max值，直接返回rob结果答案错误。理解为组合第二个元素为dp的最终答案，是取与不取的最大值，第一个元素为不取当前元素的孙子节点之和，方便父亲节点的计算</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>201. Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>考察相同位数，使用mask进行计算</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4431646.html</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>求质数方式</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>dic op</t>
+  </si>
+  <si>
+    <t>不仅要简单建立映射关系，每次建立前要先检查对应val是否已被建立关系，若已建立，则返回错误</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>记录路径</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +803,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -709,10 +829,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -774,8 +895,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1054,16 +1177,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="5" customWidth="1"/>
@@ -3168,8 +3291,362 @@
         <v>43550</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="7">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F91" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="15">
+        <v>43551</v>
+      </c>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" s="7">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F98" s="7">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99" s="7">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="7">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="7">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="7">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="7">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="7">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="7">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" s="7">
+        <v>43553</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" s="7">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="7">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="7">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" s="7">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="7">
+        <v>43554</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70774CA-B8E3-413A-B5F2-9E1B549F35B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF315FC-07D9-4061-BF03-95CD1C0B35BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="615" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="232">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -733,6 +732,12 @@
   </si>
   <si>
     <t>记录路径</t>
+  </si>
+  <si>
+    <t>630. Course Schedule III</t>
+  </si>
+  <si>
+    <t>dfs+mem尝试所有路径，n*d的复杂度，超时。使用greedy On</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,6 +3647,23 @@
         <v>43554</v>
       </c>
     </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="7">
+        <v>43554</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>

--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF315FC-07D9-4061-BF03-95CD1C0B35BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1CCA6-65FA-4AFD-A2DD-7B5C41F58A9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="615" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="780" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="460">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -738,6 +738,690 @@
   </si>
   <si>
     <t>dfs+mem尝试所有路径，n*d的复杂度，超时。使用greedy On</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Prefix Tree</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>211. Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>bfs实现时卡了一下</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>Trie Tree + dfs</t>
+  </si>
+  <si>
+    <t>直接使用dfs超时，接近n^4复杂度, 使用trie tree，依旧遍历整个graph，但降低了复杂度</t>
+  </si>
+  <si>
+    <t>214. Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>dp, KMP</t>
+  </si>
+  <si>
+    <t>找以开头字符最长的回文，然后补齐，使用dp超时，简单做法直接倒转字符串，然后依次缩短比较，如果相等则找到最长回文，然后取剩余字段补齐即可</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>216. Combination Sum III</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>218. The Skyline Problem</t>
+  </si>
+  <si>
+    <t>比较考察数据结构的应用，使用heap结构，保存当前最大高度， 左侧进来进行比较，如果大于当前最大高度则加入答案组，小于说明被盖在下面，push进heap即可。右侧进来把对应的左侧删去。 遍历整个数组，得到答案</t>
+  </si>
+  <si>
+    <t>219. Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>220. Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>使用分桶，整除gap为id，同id则符合条件，id间隔为1也判断一下。 遍历数组，当i大于等于k时，pop出刚进来的id，保证整个对比范围在K以内</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <t>不是直接算边长度的dp，而是算所有边长度，如果当前为1，则查找另外三个点的最短长度</t>
+  </si>
+  <si>
+    <t>224. Basic Calculator</t>
+  </si>
+  <si>
+    <t>简单使用stack计算存在符合问题，需要注意使用stack最后一位记录最近结果，sign记录当前符号，取出的数值*sign与stack最后一位相加为最近结果，如果遇到左括号，当前符号入栈，置当前符号为正，结果为0，进行计算，遇到右括号，则弹两次栈，计算括号内结果</t>
+  </si>
+  <si>
+    <t>calculate stack</t>
+  </si>
+  <si>
+    <t>225. Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>227. Basic Calculator II</t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>只放置left节点，logn复杂度</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>泪</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>先从前往后乘，再从后往前乘</t>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4656517.html</t>
+  </si>
+  <si>
+    <t>240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>241. Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Divid and Conquer</t>
+  </si>
+  <si>
+    <t>不是简答dfs逐层找可能，而是divid求所有可能, 学习正则匹配的简单用法</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>243. Shortest Word Distance</t>
+  </si>
+  <si>
+    <t>index, binary</t>
+  </si>
+  <si>
+    <t>244. Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>binary, point</t>
+  </si>
+  <si>
+    <t>使用bisearch时间复杂度为nlogn，使用两个指针轮转移动只需要N</t>
+  </si>
+  <si>
+    <t>245. Shortest Word Distance III</t>
+  </si>
+  <si>
+    <t>249. Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>求间距，分后面字符大于或者小于前面字符情况讨论，有统一计算trick，(26+o1-o2)%26</t>
+  </si>
+  <si>
+    <t>250. Count Univalue Subtrees</t>
+  </si>
+  <si>
+    <t>251. Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>253. Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>969. Pancake Sorting</t>
+  </si>
+  <si>
+    <t>254. Factor Combinations</t>
+  </si>
+  <si>
+    <t>从2-N，然后符合条件的继续递归，nlogn复杂度，观察简化不用2-n，2-sqrt（n）即可，则时间负责度为logn的平方</t>
+  </si>
+  <si>
+    <t>255. Verify Preorder Sequence in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>简单思路N2复杂度，使用栈可以N</t>
+  </si>
+  <si>
+    <t>256. Paint House</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>988. Smallest String Starting From Leaf</t>
+  </si>
+  <si>
+    <t>考虑整体路径问题，需要遍历所有路径然后比较，不能简单返回当前最小序，有可能在加入下个节点后排序位置发生变化</t>
+  </si>
+  <si>
+    <t>259. 3Sum Smaller</t>
+  </si>
+  <si>
+    <t>三个数小于target，可以使用二分法，也可以使用两个指针，轮序移动</t>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y</t>
+  </si>
+  <si>
+    <t>按照边建立图，然后bfs，访问过的点设置父节点，若又出现该访问节点，查找该访问点的父节点是否与当前父节点相等，不等则出现环，错误。或者建立union find，判断最大父节点的size是否为N</t>
+  </si>
+  <si>
+    <t>263. Ugly Number</t>
+  </si>
+  <si>
+    <t>264. Ugly Number II</t>
+  </si>
+  <si>
+    <t>大体使用轮乘思路，可以使用heap，先装入1，然后分别乘2,3,5装入heap，下次循环取出最小值，再次乘以2,3,5，一直到满足个数位置。或者分别建立index，起始值都为2,3,5，数组为【1】，2，3，5乘以对应下标取最小值加入数组，取到的最小值index+1</t>
+  </si>
+  <si>
+    <t>265. Paint House II</t>
+  </si>
+  <si>
+    <t>直接dp也能做，关键在于取最小值时候使用heap可以拿到logn复杂度。但标准做法是dp的一个变种，使用两个变量记录最小与次小，当前值加哪个最小值取决于当前颜色是否与上个颜色相同，相同的话取次小值，不同直接取最小值。然后与当前行进行对比，更新</t>
+  </si>
+  <si>
+    <t>266. Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>抓住回文性质，所有字符成对或仅有一个字符单独出现</t>
+  </si>
+  <si>
+    <t>267. Palindrome Permutation II</t>
+  </si>
+  <si>
+    <t>先生成前半段字符串，然后求其所有unique permutation。时间复杂度为n！，此处可以进行重复判断，如果下一个要交换的字符跟上一个相同，则直接跳过，可简化时间</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>很多题目看似简单，但其实有考察边界与特殊情况的考虑，若直接作答容易降低水准，需要全盘考虑</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t>考察字符比较，字典建立，topologic循环验证。Dfs时，需要设置两个标记位，1为正在dfs中，如果又遇到1表示有环出现，则返回失败.另外，需要用一个大数组保存所有出现的字符，这样可以保证建立完整的字典序</t>
+  </si>
+  <si>
+    <t>270. Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>271. Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>因为它说字符串中可能包含任何数组，所以我觉得在字符串中添加分割信息都是有风险的，所以需要直接在包头添加分割信息</t>
+  </si>
+  <si>
+    <t>272. Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>二叉树经典解法，while循环，只装入left节点，如果有right再将root指向right</t>
+  </si>
+  <si>
+    <t>741. Cherry Pickup</t>
+  </si>
+  <si>
+    <t>3d dp</t>
+  </si>
+  <si>
+    <t>273. Integer to English Words</t>
+  </si>
+  <si>
+    <t>274. H-Index</t>
+  </si>
+  <si>
+    <t>275. H-Index II</t>
+  </si>
+  <si>
+    <t>276. Paint Fence</t>
+  </si>
+  <si>
+    <t>轮转记录dp，比较经典的题型，用两个状态记录，每次当前的状态是上次的相反状态。跟买卖股票那题比较像</t>
+  </si>
+  <si>
+    <t>277. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>每次调用knows都可以排除一个对象，若当前i不认识c，则设i为c。第二次循环确保c为正确对象</t>
+  </si>
+  <si>
+    <t>278. First Bad Version</t>
+  </si>
+  <si>
+    <t>279. Perfect Squares</t>
+  </si>
+  <si>
+    <t>比较典型的dp问题，逐层往上考察</t>
+  </si>
+  <si>
+    <t>280. Wiggle Sort</t>
+  </si>
+  <si>
+    <t>282. Expression Add Operators</t>
+  </si>
+  <si>
+    <t>array, dfs, calculate</t>
+  </si>
+  <si>
+    <t>dfs处理，因为有乘号，所以每次也要记录上次的值，加减没有影响，乘号的话需要减去上次的值然后再一起乘起来</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>使用point进行标记，如果是0继续前移，不是0则与最前面的0进行交换</t>
+  </si>
+  <si>
+    <t>284. Peeking Iterator</t>
+  </si>
+  <si>
+    <t>285. Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>太关注树的递归性质，应该从二分查找的出发点进行考虑</t>
+  </si>
+  <si>
+    <t>510. Inorder Successor in BST II</t>
+  </si>
+  <si>
+    <t>依据二叉树性质求解</t>
+  </si>
+  <si>
+    <t>286. Walls and Gates</t>
+  </si>
+  <si>
+    <t>宽度优先搜索，直接记录步数</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>array link</t>
+  </si>
+  <si>
+    <t>快慢指针应用</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/hiddenfox/p/3408931.html</t>
+  </si>
+  <si>
+    <t>288. Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>同一时间内的变化，重点在于记录两个时间段的状态位。使用bit，00,10,11,01</t>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+  </si>
+  <si>
+    <t>291. Word Pattern II</t>
+  </si>
+  <si>
+    <t>暴力尝试所有组合，len(pattern)=n, len(string)=m,则time=n^m，因为每个pattern字符都最多有m种可能，但优化方法有不需要遍历0-m的字符，剩余m一定要大于等于n，否则觉得无法匹配，所以遍历可以截止到m-n+1处。Len(str)-k &gt;= len(pattern)-1, 当前可以取的长度</t>
+  </si>
+  <si>
+    <t>293. Flip Game</t>
+  </si>
+  <si>
+    <t>确保当前可以赢得条件是尝试所有可能，有一个能赢就行，则下一轮递归时是遍历所有可能，都不能赢时当前轮可赢</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>294. Flip Game II</t>
+  </si>
+  <si>
+    <t>查找中位数，使用排序超时，使用两个堆，维持两个堆数量平衡，中位数直接取两个堆头元素即可</t>
+  </si>
+  <si>
+    <t>296. Best Meeting Point</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>考察树的基本操作</t>
+  </si>
+  <si>
+    <t>298. Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>299. Bulls and Cows</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>301. Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>302. Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>找四个边界</t>
+  </si>
+  <si>
+    <t>305. Number of Islands II</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>使用union find建图，union完后查找root个数，会超时，直接记录count，新入加一，有连接点且root不同则union且count减一</t>
+  </si>
+  <si>
+    <t>307. Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>segment tree, bucket, bit tree</t>
+  </si>
+  <si>
+    <t>308. Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>309. Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>三个数组表示三种状态位，所以可以b[i] = max(b[i-1], c[i-1]),此处b表示当前是hold股票状态，既可以从cool买进，也可以继续持有上次买入的股票</t>
+  </si>
+  <si>
+    <t>310. Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>从图的边界开始遍历，一直往深，不能前进后停止</t>
+  </si>
+  <si>
+    <t>311. Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>312. Burst Balloons</t>
+  </si>
+  <si>
+    <t>2d dp</t>
+  </si>
+  <si>
+    <t>自低向上的dp问题，一个区间的最大值等于两头乘以该值加两块儿分割的区间。</t>
+  </si>
+  <si>
+    <t>313. Super Ugly Number</t>
+  </si>
+  <si>
+    <t>以每个质数为低，下标开始都为1，每次找出最小的加入，结果为当前最小的下标+1</t>
+  </si>
+  <si>
+    <t>314. Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>树的bfs遍历</t>
+  </si>
+  <si>
+    <t>315. Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>使用bisect，倒序插入，然后加入此数的pos</t>
+  </si>
+  <si>
+    <t>316. Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>开始使用dfs尝试所有可能，m的n次方复杂度。使用stack，因为求最小序，整体上应尽可能保持升序状态，则栈的选择最为合理。题目中涉及到单调递增或递减的信息时，需要考虑栈的使用。该题信息隐藏较好，所以是hard。考虑需要维持单调递增，若前一个字符比当前字符大，且以后也会继续出现，则pop出该字符，将当前字符加入</t>
+  </si>
+  <si>
+    <t>317. Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>宽度优先，搜索所有可能点的最短路径</t>
+  </si>
+  <si>
+    <t>318. Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>考察位操作</t>
+  </si>
+  <si>
+    <t>319. Bulb Switcher</t>
+  </si>
+  <si>
+    <t>320. Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>dfs不保证最短路径，不可以使用，bfs或者dp</t>
+  </si>
+  <si>
+    <t>321. Create Maximum Number</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>323. Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>union join或者使用bfs，先建图，然后对每个点遍历，就是find island的变种，需要自己建图而已</t>
+  </si>
+  <si>
+    <t>324. Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>特殊的技巧，还需要再研究</t>
+  </si>
+  <si>
+    <t>325. Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>使用dic记录presum的index，然后cur sum - k，查找有误匹配对象</t>
+  </si>
+  <si>
+    <t>326. Power of Three</t>
+  </si>
+  <si>
+    <t>不使用循环的话，取int的最大值内可被3整除的，此数可以整除n，则n符合条件</t>
+  </si>
+  <si>
+    <t>327. Count of Range Sum</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>注意最后指针需要置none，否则答案打印失败</t>
+  </si>
+  <si>
+    <t>329. Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>331. Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，#返回，空报错，最后看s==0，也可以使用栈，#堆俩则消上一个字符，然后加一个#，最后看能不能消完</t>
+  </si>
+  <si>
+    <t>332. Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>思路比较简单，但题意不是求全部路径，而是第一条，所以建图排序后dfs成功即可返回，其它路径不需要尝试了</t>
+  </si>
+  <si>
+    <t>333. Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>树中诸如此类局部最优解，需要有全局变量记录，然后每次递归返回时进行判断</t>
+  </si>
+  <si>
+    <t>334. Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>使用两个变量记录最小与次小</t>
+  </si>
+  <si>
+    <t>336. Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>string, dic</t>
+  </si>
+  <si>
+    <t>对字符串前后截取然后拼接看是否可以组成回文，可以则看该substring是否在其它选项中</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>观察规律</t>
+  </si>
+  <si>
+    <t>339. Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>340. Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>找最长符合条件字符串，一般使用dic计数解决</t>
+  </si>
+  <si>
+    <t>341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>342. Power of Four</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>345. Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>343. Integer Break</t>
+  </si>
+  <si>
+    <t>346. Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>heap dic</t>
+  </si>
+  <si>
+    <t>348. Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>349. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>follow up中涉及到大数据的问题，可以先外部排序，然后批次对比</t>
+  </si>
+  <si>
+    <t>351. Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>联系实际问题，需要预先建立条件数组，不符合条件的不进行递归</t>
+  </si>
+  <si>
+    <t>352. Data Stream as Disjoint Intervals</t>
+  </si>
+  <si>
+    <t>区间插入，然后合并</t>
+  </si>
+  <si>
+    <t>353. Design Snake Game</t>
+  </si>
+  <si>
+    <t>354. Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>最长升序序列的实际应用，直接dp超时，使用遍历排序</t>
+  </si>
+  <si>
+    <t>355. Design Twitter</t>
+  </si>
+  <si>
+    <t>注意重复follow，按时间排序和自己关注自己后的查询事件</t>
+  </si>
+  <si>
+    <t>359. Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>358. Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>统计词频然后往桶里放，trick在等同最大频数的一直放到最后，不是最大频数的放到倒是第二就好了</t>
   </si>
 </sst>
 </file>
@@ -1182,16 +1866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:W244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="5" customWidth="1"/>
@@ -3664,11 +4348,2098 @@
         <v>43554</v>
       </c>
     </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F117" s="15">
+        <v>43555</v>
+      </c>
+      <c r="G117" s="21"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118" s="7">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F122" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" s="7">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" s="15">
+        <v>43557</v>
+      </c>
+      <c r="G125" s="21"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="7">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="7">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="7">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F130" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F134" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F135" s="7">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" s="7">
+        <v>43558</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F138" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F140" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F141" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F142" s="7">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F143" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="7">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" s="7">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" s="7">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F151" s="7">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="7">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" s="7">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" s="7">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F155" s="7">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F156" s="7">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" s="15">
+        <v>43562</v>
+      </c>
+      <c r="G157" s="21"/>
+    </row>
+    <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" s="7">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" s="7">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" s="7">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" s="7">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" s="15">
+        <v>43563</v>
+      </c>
+      <c r="G162" s="21"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="7">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F164" s="7">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F165" s="15">
+        <v>43564</v>
+      </c>
+      <c r="G165" s="21"/>
+    </row>
+    <row r="166" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="15">
+        <v>43564</v>
+      </c>
+      <c r="G166" s="21"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F167" s="7">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="7">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" s="7">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" s="15">
+        <v>43565</v>
+      </c>
+      <c r="G170" s="21"/>
+    </row>
+    <row r="171" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" s="15">
+        <v>43565</v>
+      </c>
+      <c r="G171" s="21"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F172" s="7">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F173" s="7">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" s="7">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F175" s="7">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F176" s="7">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F177" s="7">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" s="7">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" s="7">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" s="7">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F181" s="15">
+        <v>43566</v>
+      </c>
+      <c r="G181" s="21"/>
+      <c r="H181" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F182" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F183" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F184" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F186" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F188" s="7">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F189" s="7">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" s="15">
+        <v>43570</v>
+      </c>
+      <c r="G190" s="21"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="7">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F192" s="7">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F193" s="7">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F194" s="7">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F195" s="7">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" s="7">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" s="15">
+        <v>43571</v>
+      </c>
+      <c r="G197" s="21"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="7">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F199" s="7">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F200" s="7">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F201" s="7">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F202" s="7">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F203" s="7">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F204" s="7">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F205" s="7">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F206" s="7">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F207" s="7">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F208" s="7">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F209" s="7">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F210" s="7">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" s="7">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" s="7">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" s="7">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" s="15">
+        <v>43575</v>
+      </c>
+      <c r="G214" s="21"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" s="7">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" s="7">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F217" s="7">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F218" s="7">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F219" s="7">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F220" s="7">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F221" s="7">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F222" s="7">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F223" s="7">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F224" s="7">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F225" s="7">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F226" s="7">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F227" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F228" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F229" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F230" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F231" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F232" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F234" s="7">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E235" s="12"/>
+      <c r="F235" s="15">
+        <v>43579</v>
+      </c>
+      <c r="G235" s="21"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" s="7">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F237" s="7">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F238" s="7">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F239" s="7">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="7">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F241" s="7">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F242" s="7">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F243" s="7">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F244" s="7">
+        <v>43580</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>
+    <hyperlink ref="H136" r:id="rId2" xr:uid="{8F5D75B2-635E-4C25-9FA8-66855AA66842}"/>
+    <hyperlink ref="H181" r:id="rId3" xr:uid="{FB6C80C9-0257-4FE2-8267-C64B2D6F2A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1CCA6-65FA-4AFD-A2DD-7B5C41F58A9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5509290-F7E1-4E11-9DA5-8F63E4AAC754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="780" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="477">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -1422,6 +1422,57 @@
   </si>
   <si>
     <t>统计词频然后往桶里放，trick在等同最大频数的一直放到最后，不是最大频数的放到倒是第二就好了</t>
+  </si>
+  <si>
+    <t>360. Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>361. Bomb Enemy</t>
+  </si>
+  <si>
+    <t>使用dp解决,因为是一条通道，所以遇到w或开始时直接计算当前通道内有多少E即可，在遇到下个W时，当前通道内所有E的个数都是共享的</t>
+  </si>
+  <si>
+    <t>362. Design Hit Counter</t>
+  </si>
+  <si>
+    <t>364. Nested List Weight Sum II</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>题目不难，正确使用提供的数据结构</t>
+  </si>
+  <si>
+    <t>367. Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>368. Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>363. Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>pre sum可解，但也有更简便解法</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yCQN096CwWM</t>
+  </si>
+  <si>
+    <t>370. Range Addition</t>
+  </si>
+  <si>
+    <t>直接更新超时，记录起点更新值，在终点再减去，遍历一遍讲对应值相加减即可</t>
+  </si>
+  <si>
+    <t>374. Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>375. Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>min max</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W244"/>
+  <dimension ref="A1:W254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,7 +6419,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>8</v>
       </c>
@@ -6385,7 +6436,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6453,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>12</v>
       </c>
@@ -6416,7 +6467,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1</v>
       </c>
@@ -6432,14 +6483,173 @@
       <c r="F244" s="7">
         <v>43580</v>
       </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F245" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F246" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F247" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F248" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F249" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F250" s="7">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F251" s="15">
+        <v>43581</v>
+      </c>
+      <c r="G251" s="21"/>
+      <c r="H251" s="23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F252" s="7">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F253" s="7">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E254" s="12"/>
+      <c r="F254" s="15">
+        <v>43582</v>
+      </c>
+      <c r="G254" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>
     <hyperlink ref="H136" r:id="rId2" xr:uid="{8F5D75B2-635E-4C25-9FA8-66855AA66842}"/>
     <hyperlink ref="H181" r:id="rId3" xr:uid="{FB6C80C9-0257-4FE2-8267-C64B2D6F2A7F}"/>
+    <hyperlink ref="H251" r:id="rId4" xr:uid="{793C4F1D-C4F7-4641-889D-F45614DB1C03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5509290-F7E1-4E11-9DA5-8F63E4AAC754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A076D8-1504-45B8-88B5-8971BB3D6EC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="780" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1125" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="505">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -1473,6 +1474,90 @@
   </si>
   <si>
     <t>min max</t>
+  </si>
+  <si>
+    <t>376. Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>n2 dp比较容易想到，n 的dp是两个数组，记录最长升和最长降，u = d + 1, d = u+1,类似于股票交易，轮询互相加减</t>
+  </si>
+  <si>
+    <t>377. Combination Sum IV</t>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>使用堆将每行头元素放入，每次pop最小，col+1，累计到K。使用二分，取mid值，二分统计该mid排在第几位，&lt;k，则l+1，mid增长，继续累加，&gt;=k则r=mid，直至收敛到l==r</t>
+  </si>
+  <si>
+    <t>379. Design Phone Directory</t>
+  </si>
+  <si>
+    <t>380. Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>381. Insert Delete GetRandom O(1) - Duplicates allowed</t>
+  </si>
+  <si>
+    <t>使用arr记录所有值，方便random抽样</t>
+  </si>
+  <si>
+    <t>384. Shuffle an Array</t>
+  </si>
+  <si>
+    <t>385. Mini Parser</t>
+  </si>
+  <si>
+    <t>386. Lexicographical Numbers</t>
+  </si>
+  <si>
+    <t>找规律然后遍历</t>
+  </si>
+  <si>
+    <t>670. Maximum Swap</t>
+  </si>
+  <si>
+    <t>找最右边最大数，然后跟前面最小数进行交换</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>使用stack的单调性求解</t>
+  </si>
+  <si>
+    <t>求是否有解，vis记录不置空，求最优解则不能使用vis,因为顺序问题，先到达的可能不是最好的那个，如果使用vis记录，则最优解会被略过，可参见 coin change</t>
+  </si>
+  <si>
+    <t>389. Find the Difference</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>使用二分，对数组1确认位置后，数组二中间位置也可以确定， 查看是否符合条件，不符合再进行二次划分</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>8. String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
   </si>
 </sst>
 </file>
@@ -1917,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W254"/>
+  <dimension ref="A1:W279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6642,6 +6727,383 @@
       </c>
       <c r="G254" s="21"/>
     </row>
+    <row r="255" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F255" s="7">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F256" s="7">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F257" s="7">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F258" s="7">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F259" s="7">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F260" s="7">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F261" s="7">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F262" s="7">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F263" s="7">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F264" s="7">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F265" s="7">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F266" s="15">
+        <v>43585</v>
+      </c>
+      <c r="G266" s="21"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F267" s="7">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F268" s="7">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F269" s="7">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F270" s="7">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271" s="7">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F272" s="7">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F273" s="7">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F274" s="7">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F275" s="7">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F276" s="7">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E277" s="12"/>
+      <c r="F277" s="15">
+        <v>43589</v>
+      </c>
+      <c r="G277" s="21"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F278" s="7">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F279" s="7">
+        <v>43589</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>

--- a/AA-Record.xlsx
+++ b/AA-Record.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A076D8-1504-45B8-88B5-8971BB3D6EC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D1F97-7840-413F-B700-AE08B32B38DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1125" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="630" windowWidth="25770" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="523">
   <si>
     <t>398. Random Pick Index</t>
   </si>
@@ -1558,6 +1557,60 @@
   </si>
   <si>
     <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>16. 3Sum Closest</t>
+  </si>
+  <si>
+    <t>18. 4Sum</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>27. Remove Element</t>
+  </si>
+  <si>
+    <t>28. Implement strStr()</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>37. Sudoku Solver</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive</t>
+  </si>
+  <si>
+    <t>index sort</t>
   </si>
 </sst>
 </file>
@@ -2002,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W279"/>
+  <dimension ref="A1:W299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,6 +7157,288 @@
         <v>43589</v>
       </c>
     </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" s="7">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F281" s="7">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F282" s="7">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F283" s="7">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F284" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F285" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F286" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F287" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F288" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F289" s="7">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F290" s="7">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E291" s="12"/>
+      <c r="F291" s="15">
+        <v>43628</v>
+      </c>
+      <c r="G291" s="21"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F292" s="7">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F293" s="7">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F294" s="7">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F295" s="7">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F296" s="7">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F297" s="7">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" s="7">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F299" s="7">
+        <v>43635</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H106" r:id="rId1" xr:uid="{28985433-D172-42F3-9222-72A435F4F64D}"/>
